--- a/Weighted hypoxemia index/Weighted_hypoxemia_6(sample).xlsx
+++ b/Weighted hypoxemia index/Weighted_hypoxemia_6(sample).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smcsl\Desktop\PSG_study\Brain_age\Hypoxic_burden\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kim-yuhwan/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58DB953D-F89E-4645-941D-904356541F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55C7686-2AD2-7A42-9C25-1CEF8D1EA7AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Total sleep time (h)</t>
   </si>
@@ -32,9 +32,6 @@
   </si>
   <si>
     <t>Total hypoxic burden (%min/h)</t>
-  </si>
-  <si>
-    <t>Weighted hypoxemia index (upper = 90%)</t>
   </si>
   <si>
     <t>Weighted hypoxemia index (upper = 90%, %min^2/h)</t>
@@ -68,7 +65,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,9 +147,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -190,9 +187,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -225,9 +222,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -260,9 +274,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -436,25 +467,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="44.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="42.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="54.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="54.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -471,13 +502,10 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>4.45</v>
@@ -491,13 +519,13 @@
       <c r="E2">
         <v>80.352434456929061</v>
       </c>
-      <c r="G2">
+      <c r="F2">
         <v>2.9814518263637398E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>5.2666666666666666</v>
@@ -511,13 +539,13 @@
       <c r="E3">
         <v>174.4399240513489</v>
       </c>
-      <c r="G3">
+      <c r="F3">
         <v>1.465770009350805</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>6.1333333333333337</v>
@@ -531,13 +559,13 @@
       <c r="E4">
         <v>5.7899456521738033</v>
       </c>
-      <c r="G4">
+      <c r="F4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>7.708333333333333</v>
@@ -551,13 +579,13 @@
       <c r="E5">
         <v>268.1991091911068</v>
       </c>
-      <c r="G5">
+      <c r="F5">
         <v>4.6352725111756152</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>4.6833333333333336</v>
@@ -571,13 +599,13 @@
       <c r="E6">
         <v>12.67530249110745</v>
       </c>
-      <c r="G6">
+      <c r="F6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>6.4249999999999998</v>
@@ -591,13 +619,13 @@
       <c r="E7">
         <v>6.1424591440072538</v>
       </c>
-      <c r="G7">
+      <c r="F7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>6.15</v>
@@ -611,7 +639,7 @@
       <c r="E8">
         <v>280.62899728997718</v>
       </c>
-      <c r="G8">
+      <c r="F8">
         <v>15.846352113709891</v>
       </c>
     </row>
